--- a/excel/collective/zestawy_dla_uczniow/zestaw_041.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_041.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
   <si>
     <t>ZESTAW ZADAŃ NR 41 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Natalia Jaworska</t>
-  </si>
-  <si>
-    <t>Aleksander Mazur</t>
-  </si>
-  <si>
-    <t>Szymon Krawczyk</t>
-  </si>
-  <si>
-    <t>Kacper Grabowski</t>
-  </si>
-  <si>
-    <t>Emilia Kubiak</t>
+    <t>Adam Dąbrowski</t>
+  </si>
+  <si>
+    <t>Jakub Szymański</t>
+  </si>
+  <si>
+    <t>Hanna Sadowska</t>
+  </si>
+  <si>
+    <t>Mikołaj Nowak</t>
+  </si>
+  <si>
+    <t>Julia Wójcik</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Pędzelek</t>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>11,80</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>3,80</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
   </si>
   <si>
     <t>5,50</t>
   </si>
   <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,10</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>15,00</t>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>3,30</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>12,90</t>
   </si>
   <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,20</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>2,70</t>
+    <t>1,00</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>14,60</t>
+    <t>22,04</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>19,46</t>
+    <t>7,34</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>13,46</t>
+    <t>11,42</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>9,64</t>
+    <t>29,69</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>12,19</t>
+    <t>17,13</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>25,32</t>
-  </si>
-  <si>
-    <t>27,64</t>
-  </si>
-  <si>
-    <t>7,12</t>
-  </si>
-  <si>
-    <t>27,01</t>
-  </si>
-  <si>
-    <t>26,72</t>
+    <t>13,97</t>
+  </si>
+  <si>
+    <t>25,15</t>
+  </si>
+  <si>
+    <t>14,95</t>
+  </si>
+  <si>
+    <t>29,07</t>
+  </si>
+  <si>
+    <t>18,40</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>6,54</t>
-  </si>
-  <si>
-    <t>15,86</t>
-  </si>
-  <si>
-    <t>20,83</t>
-  </si>
-  <si>
-    <t>17,05</t>
-  </si>
-  <si>
-    <t>21,58</t>
+    <t>24,69</t>
+  </si>
+  <si>
+    <t>14,96</t>
+  </si>
+  <si>
+    <t>20,77</t>
+  </si>
+  <si>
+    <t>16,97</t>
+  </si>
+  <si>
+    <t>4,93</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,46 +340,25 @@
     <t>Czy pasek?</t>
   </si>
   <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Kubiak</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
     <t>Jakub</t>
   </si>
   <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Szymański</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
+    <t>Piotrowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -415,148 +394,139 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Maja Wilk</t>
-  </si>
-  <si>
-    <t>06.09.1989</t>
-  </si>
-  <si>
-    <t>3 750,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Borkowska</t>
-  </si>
-  <si>
-    <t>08.06.1993</t>
-  </si>
-  <si>
-    <t>6 310,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Bednarska</t>
-  </si>
-  <si>
-    <t>28.12.1987</t>
-  </si>
-  <si>
-    <t>11 068,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Jankowski</t>
-  </si>
-  <si>
-    <t>25.02.1989</t>
-  </si>
-  <si>
-    <t>9 505,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kaczmarek</t>
-  </si>
-  <si>
-    <t>28.06.1995</t>
-  </si>
-  <si>
-    <t>14 971,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Maciejewska</t>
-  </si>
-  <si>
-    <t>19.09.1991</t>
-  </si>
-  <si>
-    <t>9 777,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Zawadzka</t>
-  </si>
-  <si>
-    <t>24.06.1998</t>
-  </si>
-  <si>
-    <t>12 158,00 zł</t>
+    <t>Emilia Wójcik</t>
+  </si>
+  <si>
+    <t>04.01.1991</t>
+  </si>
+  <si>
+    <t>13 954,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Król</t>
+  </si>
+  <si>
+    <t>22.08.1983</t>
+  </si>
+  <si>
+    <t>7 722,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Zawadzka</t>
+  </si>
+  <si>
+    <t>16.01.2005</t>
+  </si>
+  <si>
+    <t>4 948,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Kubiak</t>
+  </si>
+  <si>
+    <t>20.08.1989</t>
+  </si>
+  <si>
+    <t>3 093,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Krawczyk</t>
+  </si>
+  <si>
+    <t>23.11.1995</t>
+  </si>
+  <si>
+    <t>14 686,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>17.11.1977</t>
+  </si>
+  <si>
+    <t>7 398,00 zł</t>
   </si>
   <si>
     <t>Anna Borkowska</t>
   </si>
   <si>
-    <t>14.07.1988</t>
-  </si>
-  <si>
-    <t>9 685,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Bednarska</t>
-  </si>
-  <si>
-    <t>07.06.1999</t>
-  </si>
-  <si>
-    <t>7 210,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Jankowski</t>
-  </si>
-  <si>
-    <t>23.01.1983</t>
-  </si>
-  <si>
-    <t>9 241,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Zawadzka</t>
-  </si>
-  <si>
-    <t>11.07.1997</t>
-  </si>
-  <si>
-    <t>14 253,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Kowalczyk</t>
-  </si>
-  <si>
-    <t>04.03.1984</t>
-  </si>
-  <si>
-    <t>14 445,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kowalczyk</t>
-  </si>
-  <si>
-    <t>11.01.2004</t>
-  </si>
-  <si>
-    <t>5 152,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Piekarska</t>
-  </si>
-  <si>
-    <t>16.07.1980</t>
-  </si>
-  <si>
-    <t>14 105,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Król</t>
-  </si>
-  <si>
-    <t>05.03.1983</t>
-  </si>
-  <si>
-    <t>8 500,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Borkowska</t>
-  </si>
-  <si>
-    <t>11.03.1980</t>
-  </si>
-  <si>
-    <t>14 170,00 zł</t>
+    <t>27.02.1995</t>
+  </si>
+  <si>
+    <t>4 974,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Olszewska</t>
+  </si>
+  <si>
+    <t>14.07.1998</t>
+  </si>
+  <si>
+    <t>11 160,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kaczmarek</t>
+  </si>
+  <si>
+    <t>20.07.1980</t>
+  </si>
+  <si>
+    <t>14 385,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Kowalski</t>
+  </si>
+  <si>
+    <t>23.11.1991</t>
+  </si>
+  <si>
+    <t>11 816,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Wiśniewski</t>
+  </si>
+  <si>
+    <t>15.10.1986</t>
+  </si>
+  <si>
+    <t>7 884,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Kozłowski</t>
+  </si>
+  <si>
+    <t>11.04.1977</t>
+  </si>
+  <si>
+    <t>12 744,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Woźniak</t>
+  </si>
+  <si>
+    <t>07.01.1987</t>
+  </si>
+  <si>
+    <t>7 056,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Sikorska</t>
+  </si>
+  <si>
+    <t>12.09.2002</t>
+  </si>
+  <si>
+    <t>6 350,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Urbaniak</t>
+  </si>
+  <si>
+    <t>06.08.1995</t>
+  </si>
+  <si>
+    <t>8 004,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -628,292 +598,310 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>556,00 zł</t>
-  </si>
-  <si>
-    <t>662,00 zł</t>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 398,00 zł</t>
+  </si>
+  <si>
+    <t>1 775,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 282,00 zł</t>
+  </si>
+  <si>
+    <t>1 410,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>751,00 zł</t>
+  </si>
+  <si>
+    <t>916,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>857,00 zł</t>
+  </si>
+  <si>
+    <t>1 106,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>561,00 zł</t>
+  </si>
+  <si>
+    <t>623,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>789,00 zł</t>
+  </si>
+  <si>
+    <t>1 105,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 085,00 zł</t>
+  </si>
+  <si>
+    <t>1 226,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 129,00 zł</t>
+  </si>
+  <si>
+    <t>1 310,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 446,00 zł</t>
+  </si>
+  <si>
+    <t>1 663,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 277,00 zł</t>
+  </si>
+  <si>
+    <t>1 609,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 023,00 zł</t>
+  </si>
+  <si>
+    <t>1 217,00 zł</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 336,00 zł</t>
+  </si>
+  <si>
+    <t>1 870,00 zł</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>1 335,00 zł</t>
+  </si>
+  <si>
+    <t>1 575,00 zł</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>1 204,00 zł</t>
+  </si>
+  <si>
+    <t>1 324,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 379,00 zł</t>
+  </si>
+  <si>
+    <t>1 655,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>862,00 zł</t>
+  </si>
+  <si>
+    <t>1 103,00 zł</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>1 062,00 zł</t>
+  </si>
+  <si>
+    <t>1 434,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>945,00 zł</t>
+  </si>
+  <si>
+    <t>1 172,00 zł</t>
+  </si>
+  <si>
+    <t>990,00 zł</t>
+  </si>
+  <si>
+    <t>1 148,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>1 392,00 zł</t>
+  </si>
+  <si>
+    <t>1 643,00 zł</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>kujawsko-pomorskie</t>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 223,00 zł</t>
+  </si>
+  <si>
+    <t>1 370,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 012,00 zł</t>
-  </si>
-  <si>
-    <t>1 174,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 437,00 zł</t>
-  </si>
-  <si>
-    <t>1 638,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
+    <t>1 016,00 zł</t>
+  </si>
+  <si>
+    <t>1 341,00 zł</t>
+  </si>
+  <si>
+    <t>1 122,00 zł</t>
+  </si>
+  <si>
+    <t>1 346,00 zł</t>
+  </si>
+  <si>
+    <t>1 041,00 zł</t>
+  </si>
+  <si>
+    <t>1 416,00 zł</t>
   </si>
   <si>
     <t>1 384,00 zł</t>
   </si>
   <si>
-    <t>1 827,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>963,00 zł</t>
-  </si>
-  <si>
-    <t>1 069,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>1 309,00 zł</t>
-  </si>
-  <si>
-    <t>1 571,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
+    <t>1 882,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>523,00 zł</t>
+  </si>
+  <si>
+    <t>575,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 263,00 zł</t>
-  </si>
-  <si>
-    <t>1 756,00 zł</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 074,00 zł</t>
-  </si>
-  <si>
-    <t>1 504,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 040,00 zł</t>
-  </si>
-  <si>
-    <t>1 217,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>540,00 zł</t>
-  </si>
-  <si>
-    <t>664,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 361,00 zł</t>
-  </si>
-  <si>
-    <t>1 892,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>633,00 zł</t>
-  </si>
-  <si>
-    <t>766,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 231,00 zł</t>
-  </si>
-  <si>
-    <t>1 576,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>1 362,00 zł</t>
-  </si>
-  <si>
-    <t>1 893,00 zł</t>
-  </si>
-  <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 421,00 zł</t>
-  </si>
-  <si>
-    <t>1 762,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>844,00 zł</t>
-  </si>
-  <si>
-    <t>979,00 zł</t>
+    <t>1 451,00 zł</t>
+  </si>
+  <si>
+    <t>1 828,00 zł</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>855,00 zł</t>
-  </si>
-  <si>
-    <t>1 026,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>1 776,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 152,00 zł</t>
-  </si>
-  <si>
-    <t>1 394,00 zł</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 368,00 zł</t>
-  </si>
-  <si>
-    <t>1 860,00 zł</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 073,00 zł</t>
-  </si>
-  <si>
-    <t>1 223,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>775,00 zł</t>
-  </si>
-  <si>
-    <t>1 062,00 zł</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>952,00 zł</t>
-  </si>
-  <si>
-    <t>1 333,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>734,00 zł</t>
-  </si>
-  <si>
-    <t>976,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 150,00 zł</t>
-  </si>
-  <si>
-    <t>1 484,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1470,7 +1458,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -1479,7 +1467,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -1491,19 +1479,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1518,13 +1506,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1533,16 +1521,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>6</v>
@@ -1554,16 +1542,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
         <v>6</v>
@@ -1575,19 +1563,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1596,19 +1584,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1617,19 +1605,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1638,19 +1626,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
         <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1662,16 +1650,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>5</v>
       </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1680,19 +1668,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
         <v>6</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1704,10 +1692,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -1835,7 +1823,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1850,7 +1838,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1865,7 +1853,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1880,7 +1868,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1895,7 +1883,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1910,7 +1898,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2027,7 +2015,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2039,7 +2027,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2051,7 +2039,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2063,7 +2051,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2075,7 +2063,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2123,7 +2111,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2147,7 +2135,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2159,7 +2147,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2171,7 +2159,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2219,7 +2207,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2231,7 +2219,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2243,7 +2231,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2255,7 +2243,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2267,7 +2255,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2301,10 +2289,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2410,25 +2398,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2442,25 +2430,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2468,31 +2456,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2500,31 +2488,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
         <v>6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2532,136 +2520,72 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2674,10 +2598,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2689,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2699,243 +2623,232 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2953,10 +2866,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2972,7 +2885,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2982,75 +2895,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3058,22 +2971,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3081,22 +2994,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3104,22 +3017,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3127,22 +3040,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3150,22 +3063,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3173,22 +3086,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3196,22 +3109,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3219,22 +3132,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3242,22 +3155,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3265,22 +3178,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3288,22 +3201,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3311,22 +3224,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3334,22 +3247,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3357,22 +3270,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3380,22 +3293,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3403,22 +3316,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3426,22 +3339,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3449,22 +3362,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3472,22 +3385,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3495,22 +3408,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3518,22 +3431,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3541,22 +3454,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3564,22 +3477,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3587,22 +3500,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>293</v>
+        <v>196</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3610,67 +3523,136 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>298</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>299</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>183</v>
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>300</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>183</v>
+      <c r="A46" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>183</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>296</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_041.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_041.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>ZESTAW ZADAŃ NR 41 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 41 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>11,80</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,80</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,50</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>3,30</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>12,90</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,00</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>22,04</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>7,34</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>11,42</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>29,69</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>17,13</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>13,97</t>
-  </si>
-  <si>
-    <t>25,15</t>
-  </si>
-  <si>
-    <t>14,95</t>
-  </si>
-  <si>
-    <t>29,07</t>
-  </si>
-  <si>
-    <t>18,40</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>24,69</t>
-  </si>
-  <si>
-    <t>14,96</t>
-  </si>
-  <si>
-    <t>20,77</t>
-  </si>
-  <si>
-    <t>16,97</t>
-  </si>
-  <si>
-    <t>4,93</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -400,135 +322,90 @@
     <t>04.01.1991</t>
   </si>
   <si>
-    <t>13 954,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Król</t>
   </si>
   <si>
     <t>22.08.1983</t>
   </si>
   <si>
-    <t>7 722,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Zawadzka</t>
   </si>
   <si>
     <t>16.01.2005</t>
   </si>
   <si>
-    <t>4 948,00 zł</t>
-  </si>
-  <si>
     <t>Julia Kubiak</t>
   </si>
   <si>
     <t>20.08.1989</t>
   </si>
   <si>
-    <t>3 093,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Krawczyk</t>
   </si>
   <si>
     <t>23.11.1995</t>
   </si>
   <si>
-    <t>14 686,00 zł</t>
-  </si>
-  <si>
     <t>Maja Kaźmierczak</t>
   </si>
   <si>
     <t>17.11.1977</t>
   </si>
   <si>
-    <t>7 398,00 zł</t>
-  </si>
-  <si>
     <t>Anna Borkowska</t>
   </si>
   <si>
     <t>27.02.1995</t>
   </si>
   <si>
-    <t>4 974,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Olszewska</t>
   </si>
   <si>
     <t>14.07.1998</t>
   </si>
   <si>
-    <t>11 160,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kaczmarek</t>
   </si>
   <si>
     <t>20.07.1980</t>
   </si>
   <si>
-    <t>14 385,00 zł</t>
-  </si>
-  <si>
     <t>Adam Kowalski</t>
   </si>
   <si>
     <t>23.11.1991</t>
   </si>
   <si>
-    <t>11 816,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Wiśniewski</t>
   </si>
   <si>
     <t>15.10.1986</t>
   </si>
   <si>
-    <t>7 884,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kozłowski</t>
   </si>
   <si>
     <t>11.04.1977</t>
   </si>
   <si>
-    <t>12 744,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Woźniak</t>
   </si>
   <si>
     <t>07.01.1987</t>
   </si>
   <si>
-    <t>7 056,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Sikorska</t>
   </si>
   <si>
     <t>12.09.2002</t>
   </si>
   <si>
-    <t>6 350,00 zł</t>
-  </si>
-  <si>
     <t>Julia Urbaniak</t>
   </si>
   <si>
     <t>06.08.1995</t>
   </si>
   <si>
-    <t>8 004,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -541,9 +418,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -604,12 +478,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 398,00 zł</t>
-  </si>
-  <si>
-    <t>1 775,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -622,12 +490,6 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 282,00 zł</t>
-  </si>
-  <si>
-    <t>1 410,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -640,12 +502,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>751,00 zł</t>
-  </si>
-  <si>
-    <t>916,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
@@ -655,12 +511,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>857,00 zł</t>
-  </si>
-  <si>
-    <t>1 106,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -670,48 +520,24 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>561,00 zł</t>
-  </si>
-  <si>
-    <t>623,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>789,00 zł</t>
-  </si>
-  <si>
-    <t>1 105,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 085,00 zł</t>
-  </si>
-  <si>
-    <t>1 226,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 129,00 zł</t>
-  </si>
-  <si>
-    <t>1 310,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -724,168 +550,60 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 446,00 zł</t>
-  </si>
-  <si>
-    <t>1 663,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 277,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 023,00 zł</t>
-  </si>
-  <si>
-    <t>1 217,00 zł</t>
-  </si>
-  <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 336,00 zł</t>
-  </si>
-  <si>
-    <t>1 870,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 335,00 zł</t>
-  </si>
-  <si>
-    <t>1 575,00 zł</t>
-  </si>
-  <si>
     <t>luty</t>
   </si>
   <si>
-    <t>1 204,00 zł</t>
-  </si>
-  <si>
-    <t>1 324,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
-    <t>1 655,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>862,00 zł</t>
-  </si>
-  <si>
-    <t>1 103,00 zł</t>
-  </si>
-  <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>1 062,00 zł</t>
-  </si>
-  <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
-    <t>945,00 zł</t>
-  </si>
-  <si>
-    <t>1 172,00 zł</t>
-  </si>
-  <si>
-    <t>990,00 zł</t>
-  </si>
-  <si>
-    <t>1 148,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>1 392,00 zł</t>
-  </si>
-  <si>
-    <t>1 643,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 223,00 zł</t>
-  </si>
-  <si>
-    <t>1 370,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 016,00 zł</t>
-  </si>
-  <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
-    <t>1 122,00 zł</t>
-  </si>
-  <si>
-    <t>1 346,00 zł</t>
-  </si>
-  <si>
-    <t>1 041,00 zł</t>
-  </si>
-  <si>
-    <t>1 416,00 zł</t>
-  </si>
-  <si>
-    <t>1 384,00 zł</t>
-  </si>
-  <si>
-    <t>1 882,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
-    <t>523,00 zł</t>
-  </si>
-  <si>
-    <t>575,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -893,12 +611,6 @@
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 451,00 zł</t>
-  </si>
-  <si>
-    <t>1 828,00 zł</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
@@ -923,7 +635,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -980,14 +694,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -998,8 +712,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1030,30 +744,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,7 +1071,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1431,25 +1146,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1472,7 +1187,7 @@
       <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1493,7 +1208,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1514,7 +1229,7 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1535,7 +1250,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1556,7 +1271,7 @@
       <c r="F21" s="3">
         <v>6</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1577,7 +1292,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1598,7 +1313,7 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1619,7 +1334,7 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1640,7 +1355,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1661,7 +1376,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1682,7 +1397,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1703,27 +1418,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1757,7 +1462,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1777,7 +1482,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1787,29 +1492,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1817,99 +1522,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11.8</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.8</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5.5</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3.3</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>12.9</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1942,7 +1647,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1967,113 +1672,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>22.039999999999999</v>
       </c>
       <c r="C15" s="3">
         <v>43</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>7.34</v>
       </c>
       <c r="C16" s="3">
         <v>40</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11.42</v>
       </c>
       <c r="C17" s="3">
         <v>25</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>29.69</v>
       </c>
       <c r="C18" s="3">
         <v>22</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>17.13</v>
       </c>
       <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2082,94 +1787,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>13.97</v>
       </c>
       <c r="C24" s="3">
         <v>17</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>25.15</v>
       </c>
       <c r="C25" s="3">
         <v>26</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>14.95</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>29.07</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>18.4</v>
       </c>
       <c r="C28" s="3">
         <v>8</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2178,98 +1883,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>24.69</v>
       </c>
       <c r="C33" s="3">
         <v>26</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>14.96</v>
       </c>
       <c r="C34" s="3">
         <v>15</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>20.77</v>
       </c>
       <c r="C35" s="3">
         <v>30</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>16.97</v>
       </c>
       <c r="C36" s="3">
         <v>35</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4.93</v>
       </c>
       <c r="C37" s="3">
         <v>50</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2292,7 +1997,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2312,90 +2017,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2418,16 +2123,16 @@
       <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -2450,16 +2155,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2482,16 +2187,16 @@
       <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2514,16 +2219,16 @@
       <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -2546,40 +2251,40 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2612,244 +2317,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>115</v>
+      <c r="A1" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>123</v>
+      <c r="A10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>126</v>
+        <v>99</v>
+      </c>
+      <c r="C11" s="7">
+        <v>13954</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7722</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>132</v>
+        <v>103</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4948</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3093</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
+      </c>
+      <c r="C15" s="7">
+        <v>14686</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>141</v>
+        <v>109</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7398</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>144</v>
+        <v>111</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4974</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>113</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11160</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>150</v>
+        <v>115</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14385</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>153</v>
+        <v>117</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11816</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>156</v>
+        <v>119</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7884</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>159</v>
+        <v>121</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12744</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>162</v>
+        <v>123</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7056</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>165</v>
+        <v>125</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6350</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>168</v>
+        <v>127</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8004</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>169</v>
+      <c r="A28" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2884,86 +2583,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>174</v>
+      <c r="A1" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>191</v>
+      <c r="A15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2971,22 +2670,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>195</v>
+        <v>151</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1398</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1775</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2994,22 +2693,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>201</v>
+        <v>155</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1282</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1410</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3017,22 +2716,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>207</v>
+        <v>159</v>
+      </c>
+      <c r="D18" s="7">
+        <v>751</v>
+      </c>
+      <c r="E18" s="7">
+        <v>916</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3040,22 +2739,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>212</v>
+        <v>162</v>
+      </c>
+      <c r="D19" s="7">
+        <v>857</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1106</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3063,22 +2762,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>217</v>
+        <v>165</v>
+      </c>
+      <c r="D20" s="7">
+        <v>561</v>
+      </c>
+      <c r="E20" s="7">
+        <v>623</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3086,22 +2785,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>221</v>
+        <v>167</v>
+      </c>
+      <c r="D21" s="7">
+        <v>789</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1105</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3109,22 +2808,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>169</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1085</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1226</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3132,22 +2831,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>171</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1129</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1310</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3155,22 +2854,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>201</v>
+        <v>169</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1226</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1410</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3178,22 +2877,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>235</v>
+        <v>175</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1446</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1663</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3201,22 +2900,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1277</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1609</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3224,22 +2923,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>243</v>
+        <v>179</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1023</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1217</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3247,22 +2946,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>246</v>
+        <v>180</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1336</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1870</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3270,22 +2969,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>249</v>
+        <v>167</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1335</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1575</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3293,22 +2992,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>252</v>
+        <v>162</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1204</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1324</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3316,22 +3015,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>256</v>
+        <v>184</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1379</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1655</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3339,22 +3038,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>259</v>
+        <v>179</v>
+      </c>
+      <c r="D32" s="7">
+        <v>862</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1103</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3362,22 +3061,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>262</v>
+        <v>155</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1062</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1434</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3385,22 +3084,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>265</v>
+        <v>162</v>
+      </c>
+      <c r="D34" s="7">
+        <v>945</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1172</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3408,22 +3107,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>267</v>
+        <v>151</v>
+      </c>
+      <c r="D35" s="7">
+        <v>990</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1148</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3431,22 +3130,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>270</v>
+        <v>171</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1392</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1643</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>271</v>
+        <v>189</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3454,22 +3153,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>274</v>
+        <v>190</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1223</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1370</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3477,22 +3176,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>278</v>
+        <v>192</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1016</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1341</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>271</v>
+        <v>189</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3500,22 +3199,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>280</v>
+        <v>162</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1122</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1346</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3523,22 +3222,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>282</v>
+        <v>162</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1041</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1416</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3546,22 +3245,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>284</v>
+        <v>167</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1384</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1882</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3569,22 +3268,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>287</v>
+        <v>175</v>
+      </c>
+      <c r="D42" s="7">
+        <v>523</v>
+      </c>
+      <c r="E42" s="7">
+        <v>575</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3592,68 +3291,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>292</v>
+        <v>196</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1451</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1828</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>169</v>
+      <c r="A46" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>294</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>295</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>296</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>297</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>298</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_041.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_041.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>ZESTAW ZADAŃ NR 41 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Adam Dąbrowski</t>
-  </si>
-  <si>
-    <t>Jakub Szymański</t>
-  </si>
-  <si>
-    <t>Hanna Sadowska</t>
-  </si>
-  <si>
-    <t>Mikołaj Nowak</t>
-  </si>
-  <si>
-    <t>Julia Wójcik</t>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
+  </si>
+  <si>
+    <t>Filip Woźniak</t>
+  </si>
+  <si>
+    <t>Amelia Olszewska</t>
+  </si>
+  <si>
+    <t>Emilia Wójcik</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 41 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,21 +149,21 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,28 +266,37 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
   </si>
   <si>
     <t>Adam</t>
   </si>
   <si>
-    <t>Kaczmarek</t>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Kubiak</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Zawadzka</t>
   </si>
   <si>
     <t>Anna</t>
   </si>
   <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
+    <t>Lis</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -316,109 +332,118 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Emilia Wójcik</t>
-  </si>
-  <si>
-    <t>04.01.1991</t>
+    <t>Maja Borkowska</t>
+  </si>
+  <si>
+    <t>Antoni Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
+  </si>
+  <si>
+    <t>Maja Sadowska</t>
+  </si>
+  <si>
+    <t>Adam Kozłowski</t>
+  </si>
+  <si>
+    <t>Oliwia Bednarska</t>
+  </si>
+  <si>
+    <t>Maja Maciejewska</t>
+  </si>
+  <si>
+    <t>Lena Jaworska</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Adam Kaczmarek</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalczyk</t>
+  </si>
+  <si>
+    <t>Mikołaj Woźniak</t>
+  </si>
+  <si>
+    <t>Szymon Piotrowski</t>
+  </si>
+  <si>
+    <t>Filip Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Antoni Kowalski</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Maja Lis</t>
+  </si>
+  <si>
+    <t>Lena Król</t>
+  </si>
+  <si>
+    <t>Adam Grabowski</t>
+  </si>
+  <si>
+    <t>Julia Król</t>
+  </si>
+  <si>
+    <t>Amelia Bednarska</t>
+  </si>
+  <si>
+    <t>Natalia Wilk</t>
+  </si>
+  <si>
+    <t>Maja Jaworska</t>
   </si>
   <si>
     <t>Oliwia Król</t>
   </si>
   <si>
-    <t>22.08.1983</t>
-  </si>
-  <si>
-    <t>Emilia Zawadzka</t>
-  </si>
-  <si>
-    <t>16.01.2005</t>
-  </si>
-  <si>
-    <t>Julia Kubiak</t>
-  </si>
-  <si>
-    <t>20.08.1989</t>
-  </si>
-  <si>
-    <t>Mikołaj Krawczyk</t>
-  </si>
-  <si>
-    <t>23.11.1995</t>
-  </si>
-  <si>
-    <t>Maja Kaźmierczak</t>
-  </si>
-  <si>
-    <t>17.11.1977</t>
-  </si>
-  <si>
-    <t>Anna Borkowska</t>
-  </si>
-  <si>
-    <t>27.02.1995</t>
-  </si>
-  <si>
-    <t>Natalia Olszewska</t>
-  </si>
-  <si>
-    <t>14.07.1998</t>
-  </si>
-  <si>
-    <t>Mikołaj Kaczmarek</t>
-  </si>
-  <si>
-    <t>20.07.1980</t>
-  </si>
-  <si>
-    <t>Adam Kowalski</t>
-  </si>
-  <si>
-    <t>23.11.1991</t>
-  </si>
-  <si>
-    <t>Aleksander Wiśniewski</t>
-  </si>
-  <si>
-    <t>15.10.1986</t>
-  </si>
-  <si>
-    <t>Kacper Kozłowski</t>
-  </si>
-  <si>
-    <t>11.04.1977</t>
-  </si>
-  <si>
-    <t>Jakub Woźniak</t>
-  </si>
-  <si>
-    <t>07.01.1987</t>
-  </si>
-  <si>
-    <t>Oliwia Sikorska</t>
-  </si>
-  <si>
-    <t>12.09.2002</t>
-  </si>
-  <si>
-    <t>Julia Urbaniak</t>
-  </si>
-  <si>
-    <t>06.08.1995</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Amelia Borkowska</t>
+  </si>
+  <si>
+    <t>Adam Wojciechowski</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>Emilia Rogalska</t>
+  </si>
+  <si>
+    <t>Anna Maciejewska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -472,148 +497,145 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
     <t>styczeń</t>
   </si>
   <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
     <t>Płyta główna</t>
   </si>
   <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
-    <t>podkarpackie</t>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
   </si>
   <si>
     <t>marzec</t>
   </si>
   <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
   </si>
   <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
   </si>
   <si>
     <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -685,7 +707,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,12 +730,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -744,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -755,13 +771,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1068,7 +1083,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1173,16 +1188,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -1194,19 +1209,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
         <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1215,19 +1230,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
         <v>6</v>
       </c>
-      <c r="C19" s="3">
-        <v>4</v>
-      </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
         <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1236,13 +1251,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -1257,19 +1272,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1278,19 +1293,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1302,16 +1317,16 @@
         <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1320,16 +1335,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
@@ -1341,19 +1356,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
         <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1362,19 +1377,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1383,19 +1398,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1404,19 +1419,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
         <v>6</v>
       </c>
-      <c r="C28" s="3">
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
         <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="3">
-        <v>4</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1429,6 +1444,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1462,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1482,7 +1503,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1492,29 +1513,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1522,99 +1543,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>11.8</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.4</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3.8</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.3</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5.5</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4.3</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3.3</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>12.9</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>11.8</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.9</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1631,10 +1652,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1647,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1672,27 +1693,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1700,85 +1721,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>22.039999999999999</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>14.51</v>
       </c>
       <c r="C15" s="3">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>7.34</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>17.34</v>
       </c>
       <c r="C16" s="3">
-        <v>40</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>11.42</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3.59</v>
       </c>
       <c r="C17" s="3">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>29.69</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>19.1</v>
       </c>
       <c r="C18" s="3">
-        <v>22</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>17.13</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6.47</v>
       </c>
       <c r="C19" s="3">
-        <v>17</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1787,8 +1808,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1796,85 +1817,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>13.97</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>27.37</v>
       </c>
       <c r="C24" s="3">
-        <v>17</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>25.15</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>28.78</v>
       </c>
       <c r="C25" s="3">
-        <v>26</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>14.95</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1.38</v>
       </c>
       <c r="C26" s="3">
-        <v>12</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>29.07</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>30.37</v>
       </c>
       <c r="C27" s="3">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>18.4</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>7.5</v>
       </c>
       <c r="C28" s="3">
-        <v>8</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1883,8 +1904,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1892,89 +1913,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>24.69</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>18.53</v>
       </c>
       <c r="C33" s="3">
-        <v>26</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>14.96</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>30.15</v>
       </c>
       <c r="C34" s="3">
-        <v>15</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>20.77</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>9.55</v>
       </c>
       <c r="C35" s="3">
-        <v>30</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>16.97</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>6.63</v>
       </c>
       <c r="C36" s="3">
-        <v>35</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>4.93</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>8.42</v>
       </c>
       <c r="C37" s="3">
-        <v>50</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2017,111 +2046,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2129,28 +2158,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="3">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -2161,31 +2190,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
       </c>
       <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2193,31 +2222,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
         <v>6</v>
       </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3</v>
-      </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2225,38 +2254,38 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
         <v>3</v>
       </c>
       <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
         <v>4</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2272,7 +2301,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2317,238 +2346,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>89</v>
+      <c r="A1" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="7">
-        <v>13954</v>
+        <v>103</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12029</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="7">
-        <v>7722</v>
+        <v>104</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5283</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="7">
-        <v>4948</v>
+        <v>105</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C13" s="8">
+        <v>14605</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3093</v>
+        <v>106</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6277</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="7">
-        <v>14686</v>
+      <c r="B15" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2550</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="7">
-        <v>7398</v>
+      <c r="B16" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13244</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4974</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9097</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="7">
-        <v>11160</v>
+        <v>110</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3473</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14385</v>
+        <v>111</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3251</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11816</v>
+        <v>112</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7907</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7884</v>
+        <v>113</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C21" s="8">
+        <v>7100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12744</v>
+        <v>114</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C22" s="8">
+        <v>10001</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="7">
-        <v>7056</v>
+        <v>115</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C23" s="8">
+        <v>7969</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="7">
-        <v>6350</v>
+        <v>116</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C24" s="8">
+        <v>11471</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="7">
-        <v>8004</v>
+        <v>117</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8206</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="17" t="s">
-        <v>128</v>
+      <c r="A28" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2565,10 +2594,212 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3">
+        <v>143</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3">
+        <v>197</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3">
+        <v>113</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3">
+        <v>93</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3">
+        <v>114</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3">
+        <v>169</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3">
+        <v>106</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3">
+        <v>147</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3">
+        <v>117</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3">
+        <v>149</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3">
+        <v>187</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="3">
+        <v>97</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="3">
+        <v>152</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3">
+        <v>168</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="3">
+        <v>157</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2583,86 +2814,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>132</v>
+      <c r="A1" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2670,22 +2901,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1398</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1775</v>
+        <v>159</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1108</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1341</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2693,22 +2924,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1282</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1410</v>
+        <v>163</v>
+      </c>
+      <c r="D17" s="8">
+        <v>933</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1054</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2716,22 +2947,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="7">
-        <v>751</v>
-      </c>
-      <c r="E18" s="7">
-        <v>916</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1126</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1430</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2739,22 +2970,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="7">
-        <v>857</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1106</v>
+        <v>171</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1039</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1153</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2762,22 +2993,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="7">
-        <v>561</v>
-      </c>
-      <c r="E20" s="7">
-        <v>623</v>
+        <v>159</v>
+      </c>
+      <c r="D20" s="8">
+        <v>930</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1181</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2785,22 +3016,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="7">
-        <v>789</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1105</v>
+        <v>175</v>
+      </c>
+      <c r="D21" s="8">
+        <v>613</v>
+      </c>
+      <c r="E21" s="8">
+        <v>852</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2808,22 +3039,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1085</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1226</v>
+        <v>167</v>
+      </c>
+      <c r="D22" s="8">
+        <v>847</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1101</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2831,22 +3062,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1129</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1310</v>
+        <v>163</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1228</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1596</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2854,19 +3085,19 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1226</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1410</v>
+        <v>182</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1357</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1601</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>174</v>
@@ -2877,22 +3108,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1446</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1663</v>
+        <v>184</v>
+      </c>
+      <c r="D25" s="8">
+        <v>805</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1103</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2900,22 +3131,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1277</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1609</v>
+        <v>187</v>
+      </c>
+      <c r="D26" s="8">
+        <v>760</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1056</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2923,22 +3154,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1023</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1217</v>
+        <v>187</v>
+      </c>
+      <c r="D27" s="8">
+        <v>554</v>
+      </c>
+      <c r="E27" s="8">
+        <v>654</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2946,22 +3177,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1336</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1870</v>
+        <v>175</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1282</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1615</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2969,22 +3200,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1335</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1575</v>
+        <v>163</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1079</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1457</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2992,22 +3223,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1204</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1324</v>
+      <c r="D30" s="8">
+        <v>1179</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1297</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3015,22 +3246,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1379</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1655</v>
+        <v>192</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1399</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1707</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3038,22 +3269,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="7">
-        <v>862</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1103</v>
+        <v>193</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1330</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1676</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3061,22 +3292,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1062</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1434</v>
+        <v>171</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1358</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1833</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3084,22 +3315,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="7">
-        <v>945</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1172</v>
+        <v>163</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1323</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1614</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3107,22 +3338,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="7">
-        <v>990</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1148</v>
+        <v>175</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1379</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1820</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3130,22 +3361,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1392</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1643</v>
+        <v>197</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1177</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1365</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3153,22 +3384,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1223</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1370</v>
+        <v>193</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1257</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1471</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3176,22 +3407,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1016</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1341</v>
+      <c r="D38" s="8">
+        <v>1460</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1723</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3199,22 +3430,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1122</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1346</v>
+        <v>198</v>
+      </c>
+      <c r="D39" s="8">
+        <v>854</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1187</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3222,22 +3453,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1041</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1416</v>
+        <v>193</v>
+      </c>
+      <c r="D40" s="8">
+        <v>523</v>
+      </c>
+      <c r="E40" s="8">
+        <v>664</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3248,19 +3479,19 @@
         <v>158</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="7">
+        <v>201</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1258</v>
+      </c>
+      <c r="E41" s="8">
         <v>1384</v>
       </c>
-      <c r="E41" s="7">
-        <v>1882</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3268,22 +3499,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="7">
-        <v>523</v>
-      </c>
-      <c r="E42" s="7">
-        <v>575</v>
+        <v>202</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1397</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1914</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3291,58 +3522,104 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1451</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1828</v>
+        <v>203</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1391</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1641</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="8">
+        <v>810</v>
+      </c>
+      <c r="E44" s="8">
+        <v>996</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="D45" s="8">
+        <v>1326</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1658</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="16" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>200</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
